--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A703C04C-9876-0742-A10C-595A4CF7B57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9ECDE-7EC3-9C41-A7A1-252BDB857963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="35840" windowHeight="21900" activeTab="7" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="35840" windowHeight="21900" activeTab="6" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -2723,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC95E7-BFE8-A343-8C99-389FB98A2502}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2860,7 +2860,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -2898,7 +2898,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>62</v>
@@ -2936,7 +2936,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>62</v>
@@ -2968,7 +2968,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>62</v>
@@ -3000,7 +3000,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>62</v>
@@ -3100,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F5676F-EAD9-2441-AACD-7294C522F7E3}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9ECDE-7EC3-9C41-A7A1-252BDB857963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32677920-B1EF-CF48-89CE-FD4A6E38358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="35840" windowHeight="21900" activeTab="6" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="9" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="2-2" sheetId="6" r:id="rId6"/>
     <sheet name="3-1" sheetId="7" r:id="rId7"/>
     <sheet name="3-2" sheetId="8" r:id="rId8"/>
+    <sheet name="4-1" sheetId="10" r:id="rId9"/>
+    <sheet name="4-2" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="148">
   <si>
     <t>team</t>
   </si>
@@ -456,16 +458,52 @@
   </si>
   <si>
     <t>04:17</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>19:24</t>
+  </si>
+  <si>
+    <t>08:25</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>03:37</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>03:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -886,13 +924,337 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E261547-F4C6-014B-AE89-0415DC7A94A8}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607734E7-E9B2-234C-A7B9-D653F457B767}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2723,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC95E7-BFE8-A343-8C99-389FB98A2502}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3100,9 +3462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F5676F-EAD9-2441-AACD-7294C522F7E3}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3379,9 +3739,15 @@
       <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>62</v>
       </c>
@@ -3389,6 +3755,342 @@
         <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87243A3F-2359-4F4B-80ED-41D1B1D33247}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>81</v>
       </c>
     </row>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32677920-B1EF-CF48-89CE-FD4A6E38358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1DB55-1198-3248-B7EC-C173D0BD4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="9" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="5" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="147">
   <si>
     <t>team</t>
   </si>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>01:18</t>
-  </si>
-  <si>
-    <t>Jay Shalatay</t>
   </si>
   <si>
     <t>High Sticking</t>
@@ -871,7 +868,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -885,7 +882,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -899,7 +896,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -910,7 +907,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -928,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E261547-F4C6-014B-AE89-0415DC7A94A8}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -965,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -1071,7 +1068,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -1106,7 +1103,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -1141,7 +1138,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
@@ -1179,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -1188,7 +1185,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
@@ -1217,10 +1214,10 @@
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>37</v>
@@ -1438,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1844,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1876,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>46</v>
@@ -1908,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1946,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>49</v>
@@ -1984,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -2019,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>49</v>
@@ -2092,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -2162,7 +2159,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>89</v>
@@ -2339,7 +2336,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -2602,7 +2599,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -2632,7 +2629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73435BCC-9399-C249-890D-3F9139A694FB}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2825,7 +2824,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
@@ -3032,7 +3031,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>89</v>
@@ -3058,13 +3057,13 @@
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>62</v>
@@ -3122,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -3228,7 +3227,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -3266,7 +3265,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -3304,7 +3303,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -3336,7 +3335,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -3368,7 +3367,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
@@ -3441,7 +3440,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>62</v>
@@ -3497,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -3603,7 +3602,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -3638,7 +3637,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
@@ -3673,13 +3672,13 @@
         <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>52</v>
@@ -3740,13 +3739,13 @@
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>62</v>
@@ -3802,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -3933,7 +3932,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -3971,7 +3970,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -4009,7 +4008,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -4076,13 +4075,13 @@
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>62</v>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1DB55-1198-3248-B7EC-C173D0BD4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E5172-BF4D-1946-85B8-85D10FB8A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="5" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="3-2" sheetId="8" r:id="rId8"/>
     <sheet name="4-1" sheetId="10" r:id="rId9"/>
     <sheet name="4-2" sheetId="9" r:id="rId10"/>
+    <sheet name="5-1" sheetId="11" r:id="rId11"/>
+    <sheet name="5-2" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="164">
   <si>
     <t>team</t>
   </si>
@@ -379,9 +381,6 @@
     <t>19:14</t>
   </si>
   <si>
-    <t>95:15</t>
-  </si>
-  <si>
     <t>18:50</t>
   </si>
   <si>
@@ -485,6 +484,60 @@
   </si>
   <si>
     <t>03:45</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Kevin Laux</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>00:05</t>
+  </si>
+  <si>
+    <t>Interference</t>
+  </si>
+  <si>
+    <t>Tripping</t>
+  </si>
+  <si>
+    <t>03:10</t>
+  </si>
+  <si>
+    <t>01:20</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>14:18</t>
+  </si>
+  <si>
+    <t>06:49</t>
+  </si>
+  <si>
+    <t>02:39</t>
+  </si>
+  <si>
+    <t>17:08</t>
+  </si>
+  <si>
+    <t>05:15</t>
   </si>
 </sst>
 </file>
@@ -868,7 +921,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -882,7 +935,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -896,7 +949,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -907,7 +960,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -925,9 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E261547-F4C6-014B-AE89-0415DC7A94A8}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -962,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -1062,16 +1113,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>51</v>
@@ -1097,13 +1148,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -1132,13 +1183,13 @@
         <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
@@ -1170,13 +1221,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -1185,7 +1236,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
@@ -1208,16 +1259,16 @@
         <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>37</v>
@@ -1238,6 +1289,775 @@
         <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5678F921-FC19-154C-BC08-ABF50C7EE44B}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82043318-768F-2149-A9F0-1F41611803EE}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1249,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607734E7-E9B2-234C-A7B9-D653F457B767}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +2255,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1446,6 +2266,11 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1873,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>46</v>
@@ -1905,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1943,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>49</v>
@@ -1981,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -2016,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>49</v>
@@ -2089,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -2159,7 +2984,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>89</v>
@@ -2183,7 +3008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6FC016-F6C1-0A44-9C98-3949B1AA2650}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2599,7 +3426,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -2629,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73435BCC-9399-C249-890D-3F9139A694FB}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3031,7 +3858,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>89</v>
@@ -3057,7 +3884,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
@@ -3121,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -3227,7 +4054,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -3265,7 +4092,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -3303,7 +4130,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -3335,7 +4162,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -3367,7 +4194,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
@@ -3440,7 +4267,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>62</v>
@@ -3496,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -3602,7 +4429,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -3637,7 +4464,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
@@ -3672,13 +4499,13 @@
         <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>52</v>
@@ -3739,7 +4566,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
@@ -3801,7 +4628,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -3932,7 +4759,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -3970,7 +4797,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -4008,7 +4835,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -4075,7 +4902,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E5172-BF4D-1946-85B8-85D10FB8A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5594580B-5F55-1C43-A6E2-61A581FFE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="12" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,14 @@
     <sheet name="4-2" sheetId="9" r:id="rId10"/>
     <sheet name="5-1" sheetId="11" r:id="rId11"/>
     <sheet name="5-2" sheetId="12" r:id="rId12"/>
+    <sheet name="6-1" sheetId="13" r:id="rId13"/>
+    <sheet name="6-2" sheetId="14" r:id="rId14"/>
+    <sheet name="7-1" sheetId="15" r:id="rId15"/>
+    <sheet name="7-2" sheetId="16" r:id="rId16"/>
+    <sheet name="8-1" sheetId="17" r:id="rId17"/>
+    <sheet name="8-2" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="202">
   <si>
     <t>team</t>
   </si>
@@ -538,6 +544,120 @@
   </si>
   <si>
     <t>05:15</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>08:23</t>
+  </si>
+  <si>
+    <t>02:36</t>
+  </si>
+  <si>
+    <t>00:20.7</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>03:39</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>00:15</t>
+  </si>
+  <si>
+    <t>16:48</t>
+  </si>
+  <si>
+    <t>00:16</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>01:55</t>
+  </si>
+  <si>
+    <t>12:11</t>
+  </si>
+  <si>
+    <t>07:35</t>
+  </si>
+  <si>
+    <t>02:17</t>
+  </si>
+  <si>
+    <t>01:05</t>
+  </si>
+  <si>
+    <t>05:21</t>
+  </si>
+  <si>
+    <t>Delay of Game</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>15:39</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>07:47</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>11:28</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>12:42</t>
+  </si>
+  <si>
+    <t>07:52</t>
+  </si>
+  <si>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>09:17</t>
+  </si>
+  <si>
+    <t>08:18</t>
+  </si>
+  <si>
+    <t>06:41</t>
+  </si>
+  <si>
+    <t>00:37.9</t>
   </si>
 </sst>
 </file>
@@ -2067,9 +2187,2221 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A525603-2A7A-3545-8B1F-11C841691CB7}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2209063F-7AED-954E-9CEF-374CE201AEB7}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E6B415-1E62-EA47-9BED-C7EE4E8FDA46}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6762E545-D9AA-974B-B187-24ED07237573}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44429160-858B-064E-9F5F-2BC85634EFC1}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA023D9-FF46-0D44-AD3F-B401E1CF99D0}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607734E7-E9B2-234C-A7B9-D653F457B767}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2082,7 +4414,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2096,7 +4428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2110,7 +4442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,7 +4456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2138,7 +4470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +4484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2166,7 +4498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -2180,7 +4512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +4526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2208,7 +4540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -2222,7 +4554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2236,7 +4568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,28 +4582,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="E16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3008,7 +5344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6FC016-F6C1-0A44-9C98-3949B1AA2650}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5594580B-5F55-1C43-A6E2-61A581FFE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FCECDF-2915-DC44-9B44-8DEC2E3A8565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="12" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -165,499 +165,499 @@
     <t>Mike Campbell</t>
   </si>
   <si>
+    <t>Dan Pall</t>
+  </si>
+  <si>
+    <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>Doug Byrd</t>
+  </si>
+  <si>
+    <t>Christian Stole</t>
+  </si>
+  <si>
+    <t>Connor Rattey</t>
+  </si>
+  <si>
+    <t>Ben Overmann</t>
+  </si>
+  <si>
+    <t>David Horner</t>
+  </si>
+  <si>
+    <t>Brad Lintner</t>
+  </si>
+  <si>
+    <t>Chris Matroniano</t>
+  </si>
+  <si>
+    <t>Alex Fletcher</t>
+  </si>
+  <si>
+    <t>Aaron Hopkins</t>
+  </si>
+  <si>
+    <t>Brad Sarnell</t>
+  </si>
+  <si>
+    <t>Art Chambers</t>
+  </si>
+  <si>
+    <t>Adam Goldstein</t>
+  </si>
+  <si>
+    <t>Patrick Joyce</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>rink</t>
+  </si>
+  <si>
+    <t>Tucker Road Ice Rink</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>goalie</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>shooter</t>
+  </si>
+  <si>
+    <t>assist1</t>
+  </si>
+  <si>
+    <t>assist2</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>13:01</t>
+  </si>
+  <si>
+    <t>11:51</t>
+  </si>
+  <si>
+    <t>05:45</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Dan Negron</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>scored</t>
+  </si>
+  <si>
+    <t>Too Many Men on the Ice</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>07:12</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>01:22</t>
+  </si>
+  <si>
+    <t>09:22</t>
+  </si>
+  <si>
+    <t>Brett Schneider</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>07:08</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>03:20</t>
+  </si>
+  <si>
+    <t>01:18</t>
+  </si>
+  <si>
+    <t>High Sticking</t>
+  </si>
+  <si>
+    <t>19:14</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>05:35</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>04:35</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>09:31</t>
+  </si>
+  <si>
+    <t>Brett Schneider (Bort)</t>
+  </si>
+  <si>
+    <t>KLee and the Sunshine Band</t>
+  </si>
+  <si>
+    <t>Two Mothers and a Bunch of Babies</t>
+  </si>
+  <si>
+    <t>Mullady and his Tramps</t>
+  </si>
+  <si>
+    <t>Beta Carrots</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>Slashing</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>01:23</t>
+  </si>
+  <si>
+    <t>00:43</t>
+  </si>
+  <si>
+    <t>18:33</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>04:17</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>19:24</t>
+  </si>
+  <si>
+    <t>08:25</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>03:37</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>03:45</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Kevin Laux</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>00:05</t>
+  </si>
+  <si>
+    <t>Interference</t>
+  </si>
+  <si>
+    <t>Tripping</t>
+  </si>
+  <si>
+    <t>03:10</t>
+  </si>
+  <si>
+    <t>01:20</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>14:18</t>
+  </si>
+  <si>
+    <t>06:49</t>
+  </si>
+  <si>
+    <t>02:39</t>
+  </si>
+  <si>
+    <t>17:08</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>08:23</t>
+  </si>
+  <si>
+    <t>02:36</t>
+  </si>
+  <si>
+    <t>00:20.7</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>03:39</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>00:15</t>
+  </si>
+  <si>
+    <t>16:48</t>
+  </si>
+  <si>
+    <t>00:16</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>01:55</t>
+  </si>
+  <si>
+    <t>12:11</t>
+  </si>
+  <si>
+    <t>07:35</t>
+  </si>
+  <si>
+    <t>02:17</t>
+  </si>
+  <si>
+    <t>01:05</t>
+  </si>
+  <si>
+    <t>05:21</t>
+  </si>
+  <si>
+    <t>Delay of Game</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>15:39</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>07:47</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>11:28</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>12:42</t>
+  </si>
+  <si>
+    <t>07:52</t>
+  </si>
+  <si>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>09:17</t>
+  </si>
+  <si>
+    <t>08:18</t>
+  </si>
+  <si>
+    <t>06:41</t>
+  </si>
+  <si>
+    <t>00:37.9</t>
+  </si>
+  <si>
     <t>Katy Bright</t>
-  </si>
-  <si>
-    <t>Dan Pall</t>
-  </si>
-  <si>
-    <t>Bill Oehlschlager</t>
-  </si>
-  <si>
-    <t>Doug Byrd</t>
-  </si>
-  <si>
-    <t>Christian Stole</t>
-  </si>
-  <si>
-    <t>Connor Rattey</t>
-  </si>
-  <si>
-    <t>Ben Overmann</t>
-  </si>
-  <si>
-    <t>David Horner</t>
-  </si>
-  <si>
-    <t>Brad Lintner</t>
-  </si>
-  <si>
-    <t>Chris Matroniano</t>
-  </si>
-  <si>
-    <t>Alex Fletcher</t>
-  </si>
-  <si>
-    <t>Aaron Hopkins</t>
-  </si>
-  <si>
-    <t>Brad Sarnell</t>
-  </si>
-  <si>
-    <t>Art Chambers</t>
-  </si>
-  <si>
-    <t>Adam Goldstein</t>
-  </si>
-  <si>
-    <t>Patrick Joyce</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>rink</t>
-  </si>
-  <si>
-    <t>Tucker Road Ice Rink</t>
-  </si>
-  <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>shot</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>goalie</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>shooter</t>
-  </si>
-  <si>
-    <t>assist1</t>
-  </si>
-  <si>
-    <t>assist2</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>13:01</t>
-  </si>
-  <si>
-    <t>11:51</t>
-  </si>
-  <si>
-    <t>05:45</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Dan Negron</t>
-  </si>
-  <si>
-    <t>penalty</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>scored</t>
-  </si>
-  <si>
-    <t>Too Many Men on the Ice</t>
-  </si>
-  <si>
-    <t>2022-04-26</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>17:35</t>
-  </si>
-  <si>
-    <t>15:40</t>
-  </si>
-  <si>
-    <t>07:12</t>
-  </si>
-  <si>
-    <t>03:30</t>
-  </si>
-  <si>
-    <t>01:22</t>
-  </si>
-  <si>
-    <t>09:22</t>
-  </si>
-  <si>
-    <t>Brett Schneider</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13:40</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>07:08</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>03:20</t>
-  </si>
-  <si>
-    <t>01:18</t>
-  </si>
-  <si>
-    <t>High Sticking</t>
-  </si>
-  <si>
-    <t>19:14</t>
-  </si>
-  <si>
-    <t>18:50</t>
-  </si>
-  <si>
-    <t>05:35</t>
-  </si>
-  <si>
-    <t>12:40</t>
-  </si>
-  <si>
-    <t>07:50</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>08:20</t>
-  </si>
-  <si>
-    <t>05:30</t>
-  </si>
-  <si>
-    <t>04:35</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
-    <t>09:31</t>
-  </si>
-  <si>
-    <t>Brett Schneider (Bort)</t>
-  </si>
-  <si>
-    <t>KLee and the Sunshine Band</t>
-  </si>
-  <si>
-    <t>Two Mothers and a Bunch of Babies</t>
-  </si>
-  <si>
-    <t>Mullady and his Tramps</t>
-  </si>
-  <si>
-    <t>Beta Carrots</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>Slashing</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>01:45</t>
-  </si>
-  <si>
-    <t>01:23</t>
-  </si>
-  <si>
-    <t>00:43</t>
-  </si>
-  <si>
-    <t>18:33</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>04:17</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>2022-05-10</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>19:24</t>
-  </si>
-  <si>
-    <t>08:25</t>
-  </si>
-  <si>
-    <t>09:10</t>
-  </si>
-  <si>
-    <t>03:37</t>
-  </si>
-  <si>
-    <t>17:51</t>
-  </si>
-  <si>
-    <t>14:40</t>
-  </si>
-  <si>
-    <t>03:45</t>
-  </si>
-  <si>
-    <t>2022-05-17</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Kevin Laux</t>
-  </si>
-  <si>
-    <t>19:40</t>
-  </si>
-  <si>
-    <t>00:05</t>
-  </si>
-  <si>
-    <t>Interference</t>
-  </si>
-  <si>
-    <t>Tripping</t>
-  </si>
-  <si>
-    <t>03:10</t>
-  </si>
-  <si>
-    <t>01:20</t>
-  </si>
-  <si>
-    <t>09:40</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>14:18</t>
-  </si>
-  <si>
-    <t>06:49</t>
-  </si>
-  <si>
-    <t>02:39</t>
-  </si>
-  <si>
-    <t>17:08</t>
-  </si>
-  <si>
-    <t>05:15</t>
-  </si>
-  <si>
-    <t>2022-05-24</t>
-  </si>
-  <si>
-    <t>08:23</t>
-  </si>
-  <si>
-    <t>02:36</t>
-  </si>
-  <si>
-    <t>00:20.7</t>
-  </si>
-  <si>
-    <t>17:42</t>
-  </si>
-  <si>
-    <t>03:39</t>
-  </si>
-  <si>
-    <t>15:50</t>
-  </si>
-  <si>
-    <t>01:10</t>
-  </si>
-  <si>
-    <t>00:15</t>
-  </si>
-  <si>
-    <t>16:48</t>
-  </si>
-  <si>
-    <t>00:16</t>
-  </si>
-  <si>
-    <t>11:50</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17:37</t>
-  </si>
-  <si>
-    <t>01:55</t>
-  </si>
-  <si>
-    <t>12:11</t>
-  </si>
-  <si>
-    <t>07:35</t>
-  </si>
-  <si>
-    <t>02:17</t>
-  </si>
-  <si>
-    <t>01:05</t>
-  </si>
-  <si>
-    <t>05:21</t>
-  </si>
-  <si>
-    <t>Delay of Game</t>
-  </si>
-  <si>
-    <t>2022-05-31</t>
-  </si>
-  <si>
-    <t>15:39</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>07:47</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>09:25</t>
-  </si>
-  <si>
-    <t>05:20</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>11:28</t>
-  </si>
-  <si>
-    <t>13:43</t>
-  </si>
-  <si>
-    <t>12:42</t>
-  </si>
-  <si>
-    <t>07:52</t>
-  </si>
-  <si>
-    <t>14:01</t>
-  </si>
-  <si>
-    <t>09:17</t>
-  </si>
-  <si>
-    <t>08:18</t>
-  </si>
-  <si>
-    <t>06:41</t>
-  </si>
-  <si>
-    <t>00:37.9</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1107,24 +1107,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1133,41 +1133,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1175,16 +1175,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -1192,89 +1192,89 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -1286,130 +1286,130 @@
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1431,24 +1431,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1457,41 +1457,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1499,16 +1499,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -1516,60 +1516,60 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -1578,74 +1578,74 @@
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1654,65 +1654,65 @@
         <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
@@ -1727,106 +1727,106 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1847,24 +1847,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1873,41 +1873,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1915,179 +1915,179 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>25</v>
@@ -2096,33 +2096,33 @@
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -2134,30 +2134,30 @@
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -2166,19 +2166,19 @@
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2191,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A525603-2A7A-3545-8B1F-11C841691CB7}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2200,24 +2200,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2226,41 +2226,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -2268,106 +2268,106 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -2376,100 +2376,100 @@
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -2478,19 +2478,19 @@
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2513,24 +2513,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -2539,41 +2539,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -2581,13 +2581,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -2595,16 +2595,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -2612,57 +2612,57 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>27</v>
@@ -2671,30 +2671,30 @@
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -2709,30 +2709,30 @@
         <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
@@ -2744,30 +2744,30 @@
         <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
@@ -2776,33 +2776,33 @@
         <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
@@ -2811,78 +2811,78 @@
         <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2903,24 +2903,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2929,58 +2929,58 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -2988,86 +2988,86 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -3076,103 +3076,103 @@
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -3181,30 +3181,30 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
@@ -3213,103 +3213,103 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3330,24 +3330,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3356,41 +3356,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -3398,16 +3398,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -3415,165 +3415,165 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3586,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3596,24 +3596,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3622,41 +3622,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -3664,16 +3664,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -3681,54 +3681,54 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>26</v>
@@ -3743,103 +3743,103 @@
         <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -3848,77 +3848,77 @@
         <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3931,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3941,24 +3941,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -3967,41 +3967,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -4009,74 +4009,74 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
@@ -4085,68 +4085,68 @@
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -4158,68 +4158,68 @@
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -4228,170 +4228,170 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4403,7 +4403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607734E7-E9B2-234C-A7B9-D653F457B767}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4481,7 +4483,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4523,7 +4525,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4534,78 +4536,78 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16"/>
     </row>
@@ -4627,24 +4629,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -4653,58 +4655,58 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -4712,142 +4714,142 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4870,24 +4872,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -4896,41 +4898,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -4938,16 +4940,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -4955,45 +4957,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -5002,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -5025,7 +5027,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -5034,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
@@ -5057,7 +5059,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -5066,16 +5068,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
@@ -5095,7 +5097,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -5104,16 +5106,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
@@ -5133,7 +5135,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -5142,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -5168,7 +5170,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -5177,13 +5179,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
@@ -5206,7 +5208,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -5215,7 +5217,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>26</v>
@@ -5241,7 +5243,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -5250,13 +5252,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -5279,51 +5281,51 @@
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
@@ -5367,24 +5369,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -5393,41 +5395,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -5435,71 +5437,71 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -5511,33 +5513,33 @@
         <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -5546,33 +5548,33 @@
         <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -5584,33 +5586,33 @@
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -5619,74 +5621,74 @@
         <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -5695,92 +5697,92 @@
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5814,24 +5816,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -5840,41 +5842,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -5882,16 +5884,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -5899,86 +5901,86 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -5993,68 +5995,68 @@
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -6066,33 +6068,33 @@
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -6101,141 +6103,141 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6258,24 +6260,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -6284,41 +6286,41 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -6326,16 +6328,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -6343,54 +6345,54 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -6405,36 +6407,36 @@
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
@@ -6443,30 +6445,30 @@
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -6475,30 +6477,30 @@
         <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -6507,33 +6509,33 @@
         <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>29</v>
@@ -6542,59 +6544,59 @@
         <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
@@ -6603,16 +6605,16 @@
         <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6633,24 +6635,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -6659,41 +6661,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -6701,223 +6703,223 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6938,24 +6940,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -6964,41 +6966,41 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -7006,27 +7008,27 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -7034,13 +7036,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -7048,54 +7050,54 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -7104,36 +7106,36 @@
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -7148,30 +7150,30 @@
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -7183,77 +7185,77 @@
         <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FCECDF-2915-DC44-9B44-8DEC2E3A8565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7584BD-68D3-CA40-9306-47D4BA2A12F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -720,9 +720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -760,7 +760,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -866,7 +866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1008,7 +1008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1020,9 +1020,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1102,7 +1106,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1426,7 +1442,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1842,7 +1868,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2195,7 +2233,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2502,13 +2552,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2209063F-7AED-954E-9CEF-374CE201AEB7}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2898,7 +2958,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3325,7 +3395,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3585,13 +3667,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44429160-858B-064E-9F5F-2BC85634EFC1}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3930,13 +4021,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA023D9-FF46-0D44-AD3F-B401E1CF99D0}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4403,14 +4503,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607734E7-E9B2-234C-A7B9-D653F457B767}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -4624,7 +4722,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4861,13 +4971,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929E409E-9E7F-E043-B49E-61400DC4AADD}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -5346,9 +5465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6FC016-F6C1-0A44-9C98-3949B1AA2650}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5794,9 +5911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73435BCC-9399-C249-890D-3F9139A694FB}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6249,13 +6364,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC95E7-BFE8-A343-8C99-389FB98A2502}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -6630,7 +6754,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -6935,7 +7071,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7584BD-68D3-CA40-9306-47D4BA2A12F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9495455-897C-AA49-AFD1-C20E467C7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -4021,7 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA023D9-FF46-0D44-AD3F-B401E1CF99D0}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4503,7 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607734E7-E9B2-234C-A7B9-D653F457B767}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4530,80 +4530,80 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -4614,102 +4614,105 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="E16"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D12">
+    <sortCondition ref="D2:D12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9495455-897C-AA49-AFD1-C20E467C7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43410F5C-F4EC-C74C-A5F1-97F7645C14C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Lori Defnet</t>
   </si>
   <si>
-    <t>Meredith Henkleman</t>
-  </si>
-  <si>
     <t>Tom Zohlen</t>
   </si>
   <si>
@@ -658,6 +655,9 @@
   </si>
   <si>
     <t>Katy Bright</t>
+  </si>
+  <si>
+    <t>Meredith Henkelman</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1123,24 +1123,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1149,41 +1149,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -1208,92 +1208,92 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -1302,130 +1302,130 @@
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1457,24 +1457,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1483,41 +1483,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1525,77 +1525,77 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -1604,147 +1604,147 @@
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1753,106 +1753,106 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1885,24 +1885,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1911,41 +1911,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1953,217 +1953,217 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -2172,51 +2172,51 @@
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2250,24 +2250,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2276,41 +2276,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -2318,106 +2318,106 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -2426,121 +2426,121 @@
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2573,24 +2573,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -2599,41 +2599,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -2641,30 +2641,30 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -2672,127 +2672,127 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
@@ -2801,68 +2801,68 @@
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
@@ -2871,78 +2871,78 @@
         <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2973,24 +2973,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2999,58 +2999,58 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -3058,191 +3058,191 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -3251,135 +3251,135 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3412,24 +3412,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3438,224 +3438,224 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3687,24 +3687,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3713,41 +3713,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -3755,261 +3755,261 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4041,24 +4041,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -4067,41 +4067,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -4109,74 +4109,74 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
@@ -4185,313 +4185,313 @@
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4530,100 +4530,100 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4631,13 +4631,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4645,10 +4645,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -4659,7 +4659,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -4687,13 +4687,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="E14"/>
     </row>
@@ -4742,24 +4742,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -4768,201 +4768,201 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4994,24 +4994,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -5020,41 +5020,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -5062,16 +5062,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -5079,45 +5079,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -5158,10 +5158,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -5190,16 +5190,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -5228,16 +5228,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -5266,13 +5266,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -5301,13 +5301,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -5339,10 +5339,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -5374,13 +5374,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -5403,51 +5403,51 @@
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
@@ -5489,24 +5489,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -5515,41 +5515,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -5557,71 +5557,71 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -5630,279 +5630,279 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5934,24 +5934,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -5960,58 +5960,58 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -6019,162 +6019,162 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -6186,33 +6186,33 @@
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -6221,141 +6221,141 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6387,24 +6387,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -6413,58 +6413,58 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -6472,276 +6472,276 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -6774,24 +6774,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -6800,41 +6800,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -6842,223 +6842,223 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -7090,24 +7090,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -7116,69 +7116,69 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -7186,13 +7186,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -7200,54 +7200,54 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -7256,42 +7256,42 @@
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
@@ -7300,30 +7300,30 @@
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -7332,80 +7332,80 @@
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43410F5C-F4EC-C74C-A5F1-97F7645C14C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F65126-08FC-194E-B95C-5328E00694B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
@@ -654,10 +654,10 @@
     <t>00:37.9</t>
   </si>
   <si>
-    <t>Katy Bright</t>
-  </si>
-  <si>
     <t>Meredith Henkelman</t>
+  </si>
+  <si>
+    <t>Katy Meyvn</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
         <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>39</v>
@@ -4503,7 +4503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607734E7-E9B2-234C-A7B9-D653F457B767}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4595,7 +4597,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4693,7 +4695,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14"/>
     </row>
@@ -7046,7 +7048,7 @@
         <v>134</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>107</v>

--- a/data/xlsx/2022-21.xlsx
+++ b/data/xlsx/2022-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F65126-08FC-194E-B95C-5328E00694B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFF6730-BB1C-0646-AE58-9A9D4B5D4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8204AB3A-720E-2149-9049-A260361D9A1B}"/>
   </bookViews>
@@ -4503,9 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607734E7-E9B2-234C-A7B9-D653F457B767}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
